--- a/data/trans_orig/P21D2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>90820</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76291</v>
+        <v>74885</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108474</v>
+        <v>107550</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3715867472181598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3121424131409664</v>
+        <v>0.3063922899269829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.443819136355529</v>
+        <v>0.4400383313255306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -762,19 +762,19 @@
         <v>60306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49087</v>
+        <v>49294</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74287</v>
+        <v>75426</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2586581962596141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2105393921319088</v>
+        <v>0.2114269631045362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3186237164775119</v>
+        <v>0.3235097396102177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -783,19 +783,19 @@
         <v>151126</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130288</v>
+        <v>132218</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171892</v>
+        <v>173242</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3164537966253613</v>
+        <v>0.3164537966253612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2728205916564458</v>
+        <v>0.2768621524413601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3599384696871007</v>
+        <v>0.3627656727856517</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>152664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135319</v>
+        <v>136118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167229</v>
+        <v>168857</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6246225491752186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5536563587789159</v>
+        <v>0.5569264441359051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6842131521523879</v>
+        <v>0.6908776961113783</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -833,19 +833,19 @@
         <v>169888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>155983</v>
+        <v>155342</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181667</v>
+        <v>180981</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7286636308631846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6690257059263034</v>
+        <v>0.6662754982581756</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7791866100286675</v>
+        <v>0.7762406501373216</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -854,19 +854,19 @@
         <v>322552</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301486</v>
+        <v>300760</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>343560</v>
+        <v>341774</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6754165403106364</v>
+        <v>0.6754165403106365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6313053048966329</v>
+        <v>0.629785065779347</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7194067739988822</v>
+        <v>0.7156679236202709</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5013</v>
+        <v>4862</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003790703606621544</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0205104592543673</v>
+        <v>0.01989266465858561</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>1814</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5307</v>
+        <v>4756</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007778709929660119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001768775095022333</v>
+        <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02276240483522187</v>
+        <v>0.02039685930931521</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -925,19 +925,19 @@
         <v>2740</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>841</v>
+        <v>704</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6794</v>
+        <v>7335</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005737691801418844</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00176019424765908</v>
+        <v>0.001474229914337622</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01422576607441502</v>
+        <v>0.01535914244109851</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4032</v>
+        <v>4012</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00489946294754105</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01729477361448373</v>
+        <v>0.01720886327034219</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4398</v>
+        <v>3730</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.002391971262583411</v>
+        <v>0.002391971262583412</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009208484070048858</v>
+        <v>0.007809922468220587</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>66194</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52733</v>
+        <v>53673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80392</v>
+        <v>81598</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3361352069926063</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2677787108058315</v>
+        <v>0.2725548982280789</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4082345029561384</v>
+        <v>0.4143551623296834</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -1113,19 +1113,19 @@
         <v>59918</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48858</v>
+        <v>49432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>72050</v>
+        <v>71780</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3047374535305484</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2484850802810868</v>
+        <v>0.251408467366492</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3664399960765457</v>
+        <v>0.3650653437201811</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>147</v>
@@ -1134,19 +1134,19 @@
         <v>126112</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>110035</v>
+        <v>109993</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>143207</v>
+        <v>144428</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.320448503732786</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2795962148637695</v>
+        <v>0.2794898592759154</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3638851221034026</v>
+        <v>0.3669883681521537</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>128941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114791</v>
+        <v>113960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142570</v>
+        <v>141506</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6547640062988349</v>
+        <v>0.6547640062988348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5829122550232412</v>
+        <v>0.5786928078592198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7239721873666513</v>
+        <v>0.7185715134695304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -1184,19 +1184,19 @@
         <v>135121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>122833</v>
+        <v>122857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146790</v>
+        <v>145620</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6872130415156492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6247153842152079</v>
+        <v>0.6248384925289919</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.746559962797593</v>
+        <v>0.7406091289261963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>311</v>
@@ -1205,19 +1205,19 @@
         <v>264062</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>246902</v>
+        <v>245717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>280731</v>
+        <v>280065</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6709759428352733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.627372738032288</v>
+        <v>0.6243628621652901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7133314342685374</v>
+        <v>0.7116402253170582</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4648</v>
+        <v>5803</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004400016008318673</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02360230630133909</v>
+        <v>0.02946932873399787</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3928</v>
+        <v>4267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003928210662449509</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01997673405184016</v>
+        <v>0.021703243522362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5802</v>
+        <v>5297</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004164296262764581</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01474363294877834</v>
+        <v>0.0134584549291339</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4720</v>
+        <v>5257</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004700770700240169</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02396831751650878</v>
+        <v>0.02669435797374159</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4566</v>
+        <v>3958</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004121294291352957</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02322288750753984</v>
+        <v>0.02012916079908726</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6098</v>
+        <v>6128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004411257169176085</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01549473400631952</v>
+        <v>0.01557135114319476</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>75048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61560</v>
+        <v>62157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88910</v>
+        <v>90151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3974240589822768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3259975727836628</v>
+        <v>0.3291586958454851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4708307137217452</v>
+        <v>0.4774018413721304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1472,19 +1472,19 @@
         <v>29749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23330</v>
+        <v>23289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37870</v>
+        <v>37246</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3434377458419679</v>
+        <v>0.3434377458419678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2693345694709267</v>
+        <v>0.2688606326282201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4371923086875419</v>
+        <v>0.4299848923622476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>123</v>
@@ -1493,19 +1493,19 @@
         <v>104797</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91567</v>
+        <v>89674</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121560</v>
+        <v>120218</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3804474241092813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3324155982108087</v>
+        <v>0.3255450397250483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4413001153286744</v>
+        <v>0.4364281018517718</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>110605</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96753</v>
+        <v>95171</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124764</v>
+        <v>123403</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5857167305669311</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5123625701273173</v>
+        <v>0.5039845657936702</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6606956452165648</v>
+        <v>0.6534893128566495</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>80</v>
@@ -1543,19 +1543,19 @@
         <v>54525</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>46327</v>
+        <v>46898</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>61254</v>
+        <v>61334</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.6294694013341083</v>
+        <v>0.6294694013341081</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5348218243491591</v>
+        <v>0.5414199153771632</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7071549946974055</v>
+        <v>0.7080773548095234</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>188</v>
@@ -1564,19 +1564,19 @@
         <v>165130</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>148797</v>
+        <v>148954</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>179146</v>
+        <v>179945</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5994752755226183</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.540181324961965</v>
+        <v>0.5407497318612965</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6503553057315633</v>
+        <v>0.6532583017625547</v>
       </c>
     </row>
     <row r="16">
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7031</v>
+        <v>7946</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01195868100624273</v>
+        <v>0.01195868100624274</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0372356526105809</v>
+        <v>0.04207816088313084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2351</v>
+        <v>3116</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004985665331101202</v>
+        <v>0.004985665331101201</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0271394994129483</v>
+        <v>0.03596763422610327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1635,19 +1635,19 @@
         <v>2690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8254</v>
+        <v>9210</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009765933730226873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001583206721880119</v>
+        <v>0.001577157813675033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0299643408629699</v>
+        <v>0.03343613574410509</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5754</v>
+        <v>5559</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004900529444549408</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03047079901386401</v>
+        <v>0.02943554780916357</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1685,19 +1685,19 @@
         <v>1915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5924</v>
+        <v>5803</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.02210718749282269</v>
+        <v>0.02210718749282268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00545331084015981</v>
+        <v>0.005581128765818074</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06839025816987718</v>
+        <v>0.06699472708832746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1706,19 +1706,19 @@
         <v>2840</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>838</v>
+        <v>599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6741</v>
+        <v>7263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01031136663787349</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003041661657048189</v>
+        <v>0.002173569991498184</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02447025486675471</v>
+        <v>0.02636623370091392</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>239842</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>215068</v>
+        <v>215452</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>263371</v>
+        <v>263226</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4685915185320078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4201898088168481</v>
+        <v>0.4209397876251212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.514561782209916</v>
+        <v>0.5142781578868411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -1831,19 +1831,19 @@
         <v>118495</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>103653</v>
+        <v>104315</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133319</v>
+        <v>134131</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3059802429524994</v>
+        <v>0.3059802429524995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2676561657297129</v>
+        <v>0.2693657110245529</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3442607656889168</v>
+        <v>0.3463562140383687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>418</v>
@@ -1852,19 +1852,19 @@
         <v>358336</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>329203</v>
+        <v>328807</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>386568</v>
+        <v>385063</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3985510101646431</v>
+        <v>0.3985510101646429</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3661482827180002</v>
+        <v>0.3657081553781884</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4299513931996595</v>
+        <v>0.4282779627865034</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>253848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231029</v>
+        <v>231339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>278993</v>
+        <v>280911</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4959575157437013</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4513743315438246</v>
+        <v>0.4519799942362739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5450833165538477</v>
+        <v>0.5488316658958092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -1902,19 +1902,19 @@
         <v>250737</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>233828</v>
+        <v>233424</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265600</v>
+        <v>265751</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6474606638880314</v>
+        <v>0.6474606638880313</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6037985194006037</v>
+        <v>0.6027558216060054</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6858411275432627</v>
+        <v>0.6862305984397311</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>571</v>
@@ -1923,19 +1923,19 @@
         <v>504585</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>475826</v>
+        <v>476977</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>534068</v>
+        <v>535058</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.561213491858941</v>
+        <v>0.5612134918589409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5292268913053846</v>
+        <v>0.5305072581474317</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5940047269360136</v>
+        <v>0.5951058802792956</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>8542</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3803</v>
+        <v>3527</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20681</v>
+        <v>19911</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01668820954618534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007429644549170757</v>
+        <v>0.006891857126540645</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04040552509020433</v>
+        <v>0.03890025526352175</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1973,19 +1973,19 @@
         <v>4426</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2079</v>
+        <v>2181</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9137</v>
+        <v>8815</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01142926256102238</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005369088353857913</v>
+        <v>0.005631008072240163</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02359386760143973</v>
+        <v>0.02276335877535903</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -1994,19 +1994,19 @@
         <v>12968</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6961</v>
+        <v>7362</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>24954</v>
+        <v>23815</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01442305715127816</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007742053350498272</v>
+        <v>0.008187838515342582</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02775439252016659</v>
+        <v>0.02648743193090622</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>9603</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4665</v>
+        <v>5323</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16634</v>
+        <v>17423</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01876275617810554</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009114703480147167</v>
+        <v>0.01039989215427714</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03249856748881465</v>
+        <v>0.03403932312050367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2044,19 +2044,19 @@
         <v>13604</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8347</v>
+        <v>8806</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20784</v>
+        <v>20888</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03512983059844692</v>
+        <v>0.03512983059844693</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02155422961357328</v>
+        <v>0.02273976761272925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05366969153547772</v>
+        <v>0.05393661340365864</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -2065,19 +2065,19 @@
         <v>23208</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16112</v>
+        <v>16013</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33723</v>
+        <v>33409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02581244082513787</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01791980252628444</v>
+        <v>0.01781024003700936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03750710798457529</v>
+        <v>0.03715811613079272</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>138332</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>120119</v>
+        <v>119376</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155953</v>
+        <v>155793</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5200314138907641</v>
+        <v>0.5200314138907642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4515640244984851</v>
+        <v>0.4487686050520457</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5862745270740498</v>
+        <v>0.5856717359462993</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>278</v>
@@ -2190,19 +2190,19 @@
         <v>182918</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>167157</v>
+        <v>165316</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>201964</v>
+        <v>199390</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.470865129768466</v>
+        <v>0.4708651297684661</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4302932252781226</v>
+        <v>0.425553985816431</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5198927451380123</v>
+        <v>0.5132683052595449</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>415</v>
@@ -2211,19 +2211,19 @@
         <v>321250</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>296965</v>
+        <v>293325</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>344772</v>
+        <v>345741</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4908483188047536</v>
+        <v>0.4908483188047537</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4537418387860186</v>
+        <v>0.4481809465003977</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5267879876253968</v>
+        <v>0.5282695785900242</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>106308</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89416</v>
+        <v>88231</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125342</v>
+        <v>126331</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3996436575882203</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3361428765376583</v>
+        <v>0.3316864137296207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4711997904721136</v>
+        <v>0.4749167840514886</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>275</v>
@@ -2261,19 +2261,19 @@
         <v>185873</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>167664</v>
+        <v>169692</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202214</v>
+        <v>202883</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.478471282738793</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4315987321885502</v>
+        <v>0.4368179306911686</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.520538108195442</v>
+        <v>0.5222591313478575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>364</v>
@@ -2282,19 +2282,19 @@
         <v>292181</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>267936</v>
+        <v>267073</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>316046</v>
+        <v>320517</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4464325113981071</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.409387601085591</v>
+        <v>0.408070124508144</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4828969400134588</v>
+        <v>0.4897288413307122</v>
       </c>
     </row>
     <row r="26">
@@ -2324,19 +2324,19 @@
         <v>4289</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1819</v>
+        <v>1826</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8840</v>
+        <v>8843</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01104082198559768</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00468126203329155</v>
+        <v>0.004700865991492852</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02275528280210476</v>
+        <v>0.02276227751138124</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2345,19 +2345,19 @@
         <v>4289</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1823</v>
+        <v>1873</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8950</v>
+        <v>8966</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006553380300857132</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002785423769681096</v>
+        <v>0.002862176304498778</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01367502714130821</v>
+        <v>0.01369978344314201</v>
       </c>
     </row>
     <row r="27">
@@ -2374,19 +2374,19 @@
         <v>21367</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13607</v>
+        <v>13651</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>33386</v>
+        <v>32488</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08032492852101566</v>
+        <v>0.08032492852101568</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05115419506263044</v>
+        <v>0.05131743487516395</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1255083681616438</v>
+        <v>0.1221333043769386</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -2395,19 +2395,19 @@
         <v>15392</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9797</v>
+        <v>9688</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23615</v>
+        <v>23288</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03962276550714318</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0252185425407836</v>
+        <v>0.02493783270889621</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06078849463560064</v>
+        <v>0.05994858073481985</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>42</v>
@@ -2416,19 +2416,19 @@
         <v>36759</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26921</v>
+        <v>26408</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>51066</v>
+        <v>49520</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05616578949628222</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04113277259282903</v>
+        <v>0.04034921215767501</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07802474071308994</v>
+        <v>0.07566250248372967</v>
       </c>
     </row>
     <row r="28">
@@ -2520,19 +2520,19 @@
         <v>48104</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>32436</v>
+        <v>34984</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>64062</v>
+        <v>66872</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4096154039547832</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2761987541496868</v>
+        <v>0.2978975520040213</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5455031328155368</v>
+        <v>0.5694267590073692</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>269</v>
@@ -2541,19 +2541,19 @@
         <v>191067</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>172668</v>
+        <v>171685</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>209167</v>
+        <v>210015</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5378799350599734</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4860836282180762</v>
+        <v>0.4833157036302945</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5888324860149349</v>
+        <v>0.5912205162046346</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>293</v>
@@ -2562,19 +2562,19 @@
         <v>239171</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>214491</v>
+        <v>213945</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>264703</v>
+        <v>262548</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5060113152517914</v>
+        <v>0.5060113152517913</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4537965507929897</v>
+        <v>0.4526399569335253</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.560028489976687</v>
+        <v>0.5554700739850875</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>65078</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>49236</v>
+        <v>48271</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>81829</v>
+        <v>80087</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5541482743778138</v>
+        <v>0.5541482743778137</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4192532995944436</v>
+        <v>0.411041246357048</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6967891437678049</v>
+        <v>0.6819585898354285</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>200</v>
@@ -2612,19 +2612,19 @@
         <v>148623</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>132024</v>
+        <v>130937</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>166697</v>
+        <v>168888</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4183934461193347</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3716655858727372</v>
+        <v>0.3686043438899576</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.469274955177194</v>
+        <v>0.4754412431894829</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>230</v>
@@ -2633,19 +2633,19 @@
         <v>213701</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>189029</v>
+        <v>190709</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>240769</v>
+        <v>240166</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4521231059997151</v>
+        <v>0.4521231059997149</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3999249722992226</v>
+        <v>0.4034796006762379</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5093913472875248</v>
+        <v>0.5081148976029727</v>
       </c>
     </row>
     <row r="31">
@@ -2665,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17058</v>
+        <v>14986</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.03010761151989035</v>
+        <v>0.03010761151989034</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1452548401205558</v>
+        <v>0.1276086448329193</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2683,19 +2683,19 @@
         <v>7842</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3023</v>
+        <v>2921</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19644</v>
+        <v>21051</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02207683633386175</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008509477520612835</v>
+        <v>0.008221648210807992</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05529947729944031</v>
+        <v>0.05926004200483135</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -2704,19 +2704,19 @@
         <v>11378</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4640</v>
+        <v>4095</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>27805</v>
+        <v>25814</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02407216363879408</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009816651956834592</v>
+        <v>0.00866346405246524</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05882683558805316</v>
+        <v>0.05461329129912933</v>
       </c>
     </row>
     <row r="32">
@@ -2736,16 +2736,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4167</v>
+        <v>3106</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.006128710147512776</v>
+        <v>0.006128710147512775</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03548687976170196</v>
+        <v>0.0264483197602116</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2754,19 +2754,19 @@
         <v>7691</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3541</v>
+        <v>3473</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16971</v>
+        <v>17135</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02164978248683002</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009967558827915236</v>
+        <v>0.009777315791040901</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04777539241367239</v>
+        <v>0.04823648375681947</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -2775,19 +2775,19 @@
         <v>8410</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4140</v>
+        <v>4115</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18580</v>
+        <v>18419</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01779341510969955</v>
+        <v>0.01779341510969954</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008759213596765189</v>
+        <v>0.008706557579460381</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03931025355015273</v>
+        <v>0.03896944310742314</v>
       </c>
     </row>
     <row r="33">
@@ -2879,19 +2879,19 @@
         <v>658340</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>615602</v>
+        <v>616496</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>700106</v>
+        <v>702240</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4315698453304437</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4035535004183562</v>
+        <v>0.404139354533089</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4589494270132046</v>
+        <v>0.460348415350849</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>923</v>
@@ -2900,19 +2900,19 @@
         <v>642453</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>608485</v>
+        <v>605508</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>678813</v>
+        <v>678866</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3899917187538804</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3693720700563437</v>
+        <v>0.3675644329341003</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4120634625619711</v>
+        <v>0.4120958155915647</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1570</v>
@@ -2921,19 +2921,19 @@
         <v>1300793</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1246285</v>
+        <v>1246740</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1352606</v>
+        <v>1356165</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4099820815938069</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3928024034077141</v>
+        <v>0.3929455908109398</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4263124140166141</v>
+        <v>0.4274342178995595</v>
       </c>
     </row>
     <row r="35">
@@ -2950,19 +2950,19 @@
         <v>817444</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>770892</v>
+        <v>775711</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>859775</v>
+        <v>858719</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5358694379286993</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5053525306902613</v>
+        <v>0.5085115525684342</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5636191067631188</v>
+        <v>0.5629265289458679</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1309</v>
@@ -2971,19 +2971,19 @@
         <v>944768</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>908741</v>
+        <v>908441</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>980044</v>
+        <v>981990</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5735071770914318</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.551637839141481</v>
+        <v>0.5514556016960425</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5949212910681723</v>
+        <v>0.5961026041284359</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2039</v>
@@ -2992,19 +2992,19 @@
         <v>1762212</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1709692</v>
+        <v>1710115</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1820193</v>
+        <v>1820162</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5554113145721802</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5388581132896799</v>
+        <v>0.5389916150464655</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5736856744469971</v>
+        <v>0.5736758610213372</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>16129</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8237</v>
+        <v>8589</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32654</v>
+        <v>34087</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01057296821913069</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005399763533050123</v>
+        <v>0.00563044011308526</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02140634669111034</v>
+        <v>0.02234576046705729</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -3042,19 +3042,19 @@
         <v>19575</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12739</v>
+        <v>12307</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31030</v>
+        <v>32478</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01188284694915207</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.007732916259525706</v>
+        <v>0.007470745139734889</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01883603124416114</v>
+        <v>0.01971553487748759</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>39</v>
@@ -3063,19 +3063,19 @@
         <v>35704</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>23716</v>
+        <v>24258</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>53253</v>
+        <v>54870</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01125306987054292</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.007474756645338927</v>
+        <v>0.00764568039825639</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01678410513118975</v>
+        <v>0.017293699288827</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>33541</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23270</v>
+        <v>23911</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46675</v>
+        <v>45866</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02198774852172627</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01525473543592189</v>
+        <v>0.01567443985666919</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03059746809775285</v>
+        <v>0.03006719197716718</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>56</v>
@@ -3113,19 +3113,19 @@
         <v>40555</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>30963</v>
+        <v>31454</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53248</v>
+        <v>55448</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02461825720553565</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01879540396228263</v>
+        <v>0.01909388633657613</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03232338659476312</v>
+        <v>0.03365907484427769</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>90</v>
@@ -3134,19 +3134,19 @@
         <v>74096</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>57984</v>
+        <v>59400</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>90678</v>
+        <v>93092</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.02335353396347001</v>
+        <v>0.02335353396347</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01827518608971217</v>
+        <v>0.01872176100827059</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02857973031338062</v>
+        <v>0.02934052954229512</v>
       </c>
     </row>
     <row r="38">
